--- a/Results/Parallel - OpenMP.xlsx
+++ b/Results/Parallel - OpenMP.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suttie\Desktop\Projects\C++ Projects\N-Queens-CW2\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967CC418-A97F-40F6-A316-184D5AC8A128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288E08BC-0C98-41AB-848D-C964CAA9629A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21060" yWindow="6570" windowWidth="21600" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>RUN 1</t>
   </si>
@@ -75,18 +84,35 @@
     <t>N = 8</t>
   </si>
   <si>
-    <t>N = 9</t>
-  </si>
-  <si>
-    <t>N = 10</t>
+    <t>N=9</t>
+  </si>
+  <si>
+    <t>N=10</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>OpenMP</t>
+  </si>
+  <si>
+    <t>Serial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,9 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -134,6 +163,1046 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>OpenMP Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31600678040244967"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$12:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>N = 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>N = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N = 6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>N = 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>N = 8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N=9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>N=10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.25386E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1221000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2880000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7596140000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13941219999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4048880000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.742260000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E5D-49A1-82F3-266B3622A5BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1411959759"/>
+        <c:axId val="1411962671"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1411959759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>N</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Complexity</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1411962671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1411962671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (Seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1411959759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416FF526-A420-4A5B-A7B4-AB6CA1D65B1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,86 +1468,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="10" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B2" s="1">
+        <v>5.9109000000000002E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.3036000000000003E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.2478999999999998E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8.7191999999999999E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5.1215000000000002E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.06462E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6.5910999999999999E-3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.2525000000000002E-3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5.6397000000000001E-3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5.1060000000000003E-3</v>
+      </c>
+      <c r="L2" s="1">
+        <f>AVERAGE(B2:K2)</f>
+        <v>6.25386E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B3" s="1">
+        <v>1.0230000000000001E-4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.1069999999999999E-4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.143E-4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.349E-4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.0399999999999999E-4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.1569999999999999E-4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.081E-4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.021E-4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.1349999999999999E-4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.165E-4</v>
+      </c>
+      <c r="L3" s="1">
+        <f>AVERAGE(B3:K3)</f>
+        <v>1.1221000000000003E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B4" s="1">
+        <v>5.9909999999999998E-4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.2630000000000002E-4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.215E-4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.4039999999999995E-4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.5399999999999999E-4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.7980000000000001E-4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.5409999999999999E-4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.3629999999999999E-4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4.2529999999999998E-4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.5120000000000003E-4</v>
+      </c>
+      <c r="L4" s="1">
+        <f>AVERAGE(B4:K4)</f>
+        <v>4.2880000000000001E-4</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B5" s="1">
+        <v>0.11375300000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.5094999999999996E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.3400999999999996E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.6623999999999998E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.5142000000000004E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.04545E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6.7774000000000003E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5.5744000000000002E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7.9477000000000003E-3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5.4282000000000002E-3</v>
+      </c>
+      <c r="L5" s="1">
+        <f>AVERAGE(B5:K5)</f>
+        <v>1.7596140000000003E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B6" s="1">
+        <v>0.164882</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.124691</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.13753099999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.153726</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.13178200000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.13156999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.13985700000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.12917699999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.150918</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.12998799999999999</v>
+      </c>
+      <c r="L6" s="1">
+        <f>AVERAGE(B6:K6)</f>
+        <v>0.13941219999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B7" s="1">
+        <v>3.45763</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.4274900000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.5614499999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.2814899999999998</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.2075</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.43432</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.5958399999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.2948499999999998</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.2843900000000001</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3.5039199999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <f>AVERAGE(B7:K7)</f>
+        <v>3.4048880000000006</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>78.453199999999995</v>
+      </c>
+      <c r="C8" s="1">
+        <v>79.217100000000002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>79.347399999999993</v>
+      </c>
+      <c r="E8" s="1">
+        <v>78.400999999999996</v>
+      </c>
+      <c r="F8" s="1">
+        <v>78.165099999999995</v>
+      </c>
+      <c r="G8" s="1">
+        <v>78.332099999999997</v>
+      </c>
+      <c r="H8" s="1">
+        <v>79.290300000000002</v>
+      </c>
+      <c r="I8" s="1">
+        <v>79.121300000000005</v>
+      </c>
+      <c r="J8" s="1">
+        <v>78.301900000000003</v>
+      </c>
+      <c r="K8" s="1">
+        <v>78.793199999999999</v>
+      </c>
+      <c r="L8" s="1">
+        <f>AVERAGE(B8:K8)</f>
+        <v>78.742260000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <f>AVERAGE(B2:K2)</f>
+        <v>6.25386E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <f>AVERAGE(B3:K3)</f>
+        <v>1.1221000000000003E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <f>AVERAGE(B4:K4)</f>
+        <v>4.2880000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <f>AVERAGE(B5:K5)</f>
+        <v>1.7596140000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <f>AVERAGE(B6:K6)</f>
+        <v>0.13941219999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <f>AVERAGE(B7:K7)</f>
+        <v>3.4048880000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <f>AVERAGE(B8:K8)</f>
+        <v>78.742260000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <f>AVERAGE(B12:K12)</f>
+        <v>6.25386E-3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <f>AVERAGE(B13:K13)</f>
+        <v>1.1221000000000003E-4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1">
+        <f>AVERAGE(B14:K14)</f>
+        <v>4.2880000000000001E-4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1">
+        <f>AVERAGE(B15:K15)</f>
+        <v>1.7596140000000003E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1">
+        <f>AVERAGE(B16:K16)</f>
+        <v>0.13941219999999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1">
+        <f>AVERAGE(B17:K17)</f>
+        <v>3.4048880000000006</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1">
+        <f>AVERAGE(B18:K18)</f>
+        <v>78.742260000000002</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.8200000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Results/Parallel - OpenMP.xlsx
+++ b/Results/Parallel - OpenMP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suttie\Desktop\Projects\C++ Projects\N-Queens-CW2\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288E08BC-0C98-41AB-848D-C964CAA9629A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A498941-6A87-44DC-A109-18C2CE93AE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>RUN 1</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Serial</t>
+  </si>
+  <si>
+    <t>CUDA</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1168,16 +1190,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1203,6 +1225,21 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20E55C1C-859B-48BA-954C-EEE08A53FA61}" name="Table1" displayName="Table1" ref="A21:D28" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A21:D28" xr:uid="{20E55C1C-859B-48BA-954C-EEE08A53FA61}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4A9D39E3-78B5-4838-8336-DE45C14DFFD8}" name="N" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2AA685AE-890C-44D0-B7D7-B89E498DE405}" name="OpenMP" dataDxfId="4">
+      <calculatedColumnFormula>AVERAGE(B12:K12)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BA2A219E-287D-49F0-A4E5-1C405DFCC994}" name="Serial" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{A16F504E-1E41-4FA2-8E50-4A42F7918A64}" name="CUDA" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1471,7 +1508,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A21" sqref="A21:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1591,7 @@
         <v>5.1060000000000003E-3</v>
       </c>
       <c r="L2" s="1">
-        <f>AVERAGE(B2:K2)</f>
+        <f t="shared" ref="L2:L8" si="0">AVERAGE(B2:K2)</f>
         <v>6.25386E-3</v>
       </c>
     </row>
@@ -1593,7 +1630,7 @@
         <v>1.165E-4</v>
       </c>
       <c r="L3" s="1">
-        <f>AVERAGE(B3:K3)</f>
+        <f t="shared" si="0"/>
         <v>1.1221000000000003E-4</v>
       </c>
     </row>
@@ -1632,7 +1669,7 @@
         <v>3.5120000000000003E-4</v>
       </c>
       <c r="L4" s="1">
-        <f>AVERAGE(B4:K4)</f>
+        <f t="shared" si="0"/>
         <v>4.2880000000000001E-4</v>
       </c>
     </row>
@@ -1671,7 +1708,7 @@
         <v>5.4282000000000002E-3</v>
       </c>
       <c r="L5" s="1">
-        <f>AVERAGE(B5:K5)</f>
+        <f t="shared" si="0"/>
         <v>1.7596140000000003E-2</v>
       </c>
     </row>
@@ -1710,7 +1747,7 @@
         <v>0.12998799999999999</v>
       </c>
       <c r="L6" s="1">
-        <f>AVERAGE(B6:K6)</f>
+        <f t="shared" si="0"/>
         <v>0.13941219999999999</v>
       </c>
     </row>
@@ -1749,7 +1786,7 @@
         <v>3.5039199999999999</v>
       </c>
       <c r="L7" s="1">
-        <f>AVERAGE(B7:K7)</f>
+        <f t="shared" si="0"/>
         <v>3.4048880000000006</v>
       </c>
     </row>
@@ -1788,7 +1825,7 @@
         <v>78.793199999999999</v>
       </c>
       <c r="L8" s="1">
-        <f>AVERAGE(B8:K8)</f>
+        <f t="shared" si="0"/>
         <v>78.742260000000002</v>
       </c>
     </row>
@@ -1797,7 +1834,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <f>AVERAGE(B2:K2)</f>
+        <f t="shared" ref="B12:B18" si="1">AVERAGE(B2:K2)</f>
         <v>6.25386E-3</v>
       </c>
     </row>
@@ -1806,7 +1843,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <f>AVERAGE(B3:K3)</f>
+        <f t="shared" si="1"/>
         <v>1.1221000000000003E-4</v>
       </c>
     </row>
@@ -1815,7 +1852,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <f>AVERAGE(B4:K4)</f>
+        <f t="shared" si="1"/>
         <v>4.2880000000000001E-4</v>
       </c>
     </row>
@@ -1824,7 +1861,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <f>AVERAGE(B5:K5)</f>
+        <f t="shared" si="1"/>
         <v>1.7596140000000003E-2</v>
       </c>
     </row>
@@ -1833,126 +1870,153 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <f>AVERAGE(B6:K6)</f>
+        <f t="shared" si="1"/>
         <v>0.13941219999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <f>AVERAGE(B7:K7)</f>
+        <f t="shared" si="1"/>
         <v>3.4048880000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <f>AVERAGE(B8:K8)</f>
+        <f t="shared" si="1"/>
         <v>78.742260000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="1">
-        <f>AVERAGE(B12:K12)</f>
+        <f t="shared" ref="B22:B28" si="2">AVERAGE(B12:K12)</f>
         <v>6.25386E-3</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <v>6.3420000000000002E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1">
-        <f>AVERAGE(B13:K13)</f>
+        <f t="shared" si="2"/>
         <v>1.1221000000000003E-4</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <v>4.9218000000000005E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="1">
-        <f>AVERAGE(B14:K14)</f>
+        <f t="shared" si="2"/>
         <v>4.2880000000000001E-4</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <v>4.9339999999999996E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="1">
-        <f>AVERAGE(B15:K15)</f>
+        <f t="shared" si="2"/>
         <v>1.7596140000000003E-2</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <v>1.4495E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="1">
-        <f>AVERAGE(B16:K16)</f>
+        <f t="shared" si="2"/>
         <v>0.13941219999999999</v>
       </c>
       <c r="C26" s="1">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <v>3.7079000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="1">
-        <f>AVERAGE(B17:K17)</f>
+        <f t="shared" si="2"/>
         <v>3.4048880000000006</v>
       </c>
       <c r="C27" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <v>0.1292432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="1">
-        <f>AVERAGE(B18:K18)</f>
+        <f t="shared" si="2"/>
         <v>78.742260000000002</v>
       </c>
       <c r="C28" s="1">
         <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.613448</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>